--- a/data/NFLAway_percent_Wins.xlsx
+++ b/data/NFLAway_percent_Wins.xlsx
@@ -11,6 +11,104 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>San Francisco 49ers</t>
+  </si>
+  <si>
+    <t>San Diego Chargers</t>
+  </si>
+  <si>
+    <t>New York Jets</t>
+  </si>
+  <si>
+    <t>New Orleans Saints</t>
+  </si>
+  <si>
+    <t>Indianapolis Colts</t>
+  </si>
+  <si>
+    <t>Kansas City Chiefs</t>
+  </si>
+  <si>
+    <t>Miami Dolphins</t>
+  </si>
+  <si>
+    <t>New England Patriots</t>
+  </si>
+  <si>
+    <t>New York Giants</t>
+  </si>
+  <si>
+    <t>Oakland Raiders</t>
+  </si>
+  <si>
+    <t>Tampa Bay Buccaneers</t>
+  </si>
+  <si>
+    <t>Jacksonville Jaguars</t>
+  </si>
+  <si>
+    <t>Buffalo Bills</t>
+  </si>
+  <si>
+    <t>Chicago Bears</t>
+  </si>
+  <si>
+    <t>Arizona Cardinals</t>
+  </si>
+  <si>
+    <t>Denver Broncos</t>
+  </si>
+  <si>
+    <t>Philadelphia Eagles</t>
+  </si>
+  <si>
+    <t>Green Bay Packers</t>
+  </si>
+  <si>
+    <t>Carolina Panthers</t>
+  </si>
+  <si>
+    <t>Cleveland Browns</t>
+  </si>
+  <si>
+    <t>Dallas Cowboys</t>
+  </si>
+  <si>
+    <t>Baltimore Ravens</t>
+  </si>
+  <si>
+    <t>Washington Redskins</t>
+  </si>
+  <si>
+    <t>Atlanta Falcons</t>
+  </si>
+  <si>
+    <t>Pittsburgh Steelers</t>
+  </si>
+  <si>
+    <t>Tennessee Titans</t>
+  </si>
+  <si>
+    <t>Houston Texans</t>
+  </si>
+  <si>
+    <t>Seattle Seahawks</t>
+  </si>
+  <si>
+    <t>St. Louis Rams</t>
+  </si>
+  <si>
+    <t>Cincinnati Bengals</t>
+  </si>
+  <si>
+    <t>Minnesota Vikings</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,177 +464,1415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:BD1"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:56">
+    <row r="1" spans="1:14">
       <c r="B1" s="1">
-        <v>1960</v>
+        <v>2002</v>
       </c>
       <c r="C1" s="1">
-        <v>1961</v>
+        <v>2003</v>
       </c>
       <c r="D1" s="1">
-        <v>1962</v>
+        <v>2004</v>
       </c>
       <c r="E1" s="1">
-        <v>1963</v>
+        <v>2005</v>
       </c>
       <c r="F1" s="1">
-        <v>1964</v>
+        <v>2006</v>
       </c>
       <c r="G1" s="1">
-        <v>1965</v>
+        <v>2007</v>
       </c>
       <c r="H1" s="1">
-        <v>1966</v>
+        <v>2008</v>
       </c>
       <c r="I1" s="1">
-        <v>1967</v>
+        <v>2009</v>
       </c>
       <c r="J1" s="1">
-        <v>1968</v>
+        <v>2010</v>
       </c>
       <c r="K1" s="1">
-        <v>1969</v>
+        <v>2011</v>
       </c>
       <c r="L1" s="1">
-        <v>1970</v>
+        <v>2012</v>
       </c>
       <c r="M1" s="1">
-        <v>1971</v>
+        <v>2013</v>
       </c>
       <c r="N1" s="1">
-        <v>1972</v>
-      </c>
-      <c r="O1" s="1">
-        <v>1973</v>
-      </c>
-      <c r="P1" s="1">
-        <v>1974</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>1975</v>
-      </c>
-      <c r="R1" s="1">
-        <v>1976</v>
-      </c>
-      <c r="S1" s="1">
-        <v>1977</v>
-      </c>
-      <c r="T1" s="1">
-        <v>1978</v>
-      </c>
-      <c r="U1" s="1">
-        <v>1979</v>
-      </c>
-      <c r="V1" s="1">
-        <v>1980</v>
-      </c>
-      <c r="W1" s="1">
-        <v>1981</v>
-      </c>
-      <c r="X1" s="1">
-        <v>1982</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>1983</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>1984</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>1985</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>1986</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>1987</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>1988</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>1989</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>1990</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>1991</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>1992</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>1993</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>1994</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>1995</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>1996</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>1997</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>1998</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>1999</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>2000</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>2001</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>2002</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>2003</v>
-      </c>
-      <c r="AT1" s="1">
-        <v>2004</v>
-      </c>
-      <c r="AU1" s="1">
-        <v>2005</v>
-      </c>
-      <c r="AV1" s="1">
-        <v>2006</v>
-      </c>
-      <c r="AW1" s="1">
-        <v>2007</v>
-      </c>
-      <c r="AX1" s="1">
-        <v>2008</v>
-      </c>
-      <c r="AY1" s="1">
-        <v>2009</v>
-      </c>
-      <c r="AZ1" s="1">
-        <v>2010</v>
-      </c>
-      <c r="BA1" s="1">
-        <v>2011</v>
-      </c>
-      <c r="BB1" s="1">
-        <v>2012</v>
-      </c>
-      <c r="BC1" s="1">
-        <v>2013</v>
-      </c>
-      <c r="BD1" s="1">
         <v>2014</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.625</v>
+      </c>
+      <c r="C2">
+        <v>0.125</v>
+      </c>
+      <c r="D2">
+        <v>0.125</v>
+      </c>
+      <c r="E2">
+        <v>0.125</v>
+      </c>
+      <c r="F2">
+        <v>0.375</v>
+      </c>
+      <c r="G2">
+        <v>0.25</v>
+      </c>
+      <c r="H2">
+        <v>0.375</v>
+      </c>
+      <c r="I2">
+        <v>0.25</v>
+      </c>
+      <c r="J2">
+        <v>0.125</v>
+      </c>
+      <c r="K2">
+        <v>0.75</v>
+      </c>
+      <c r="L2">
+        <v>0.625</v>
+      </c>
+      <c r="M2">
+        <v>0.75</v>
+      </c>
+      <c r="N2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.375</v>
+      </c>
+      <c r="C3">
+        <v>0.25</v>
+      </c>
+      <c r="D3">
+        <v>0.625</v>
+      </c>
+      <c r="E3">
+        <v>0.625</v>
+      </c>
+      <c r="F3">
+        <v>0.75</v>
+      </c>
+      <c r="G3">
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <v>0.375</v>
+      </c>
+      <c r="I3">
+        <v>0.875</v>
+      </c>
+      <c r="J3">
+        <v>0.375</v>
+      </c>
+      <c r="K3">
+        <v>0.375</v>
+      </c>
+      <c r="L3">
+        <v>0.5</v>
+      </c>
+      <c r="M3">
+        <v>0.5</v>
+      </c>
+      <c r="N3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <v>0.25</v>
+      </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.75</v>
+      </c>
+      <c r="G4">
+        <v>0.125</v>
+      </c>
+      <c r="H4">
+        <v>0.5</v>
+      </c>
+      <c r="I4">
+        <v>0.625</v>
+      </c>
+      <c r="J4">
+        <v>0.75</v>
+      </c>
+      <c r="K4">
+        <v>0.25</v>
+      </c>
+      <c r="L4">
+        <v>0.375</v>
+      </c>
+      <c r="M4">
+        <v>0.25</v>
+      </c>
+      <c r="N4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.625</v>
+      </c>
+      <c r="C5">
+        <v>0.375</v>
+      </c>
+      <c r="D5">
+        <v>0.625</v>
+      </c>
+      <c r="E5">
+        <v>0.25</v>
+      </c>
+      <c r="F5">
+        <v>0.75</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+      <c r="H5">
+        <v>0.25</v>
+      </c>
+      <c r="I5">
+        <v>0.875</v>
+      </c>
+      <c r="J5">
+        <v>0.75</v>
+      </c>
+      <c r="K5">
+        <v>0.625</v>
+      </c>
+      <c r="L5">
+        <v>0.375</v>
+      </c>
+      <c r="M5">
+        <v>0.375</v>
+      </c>
+      <c r="N5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.625</v>
+      </c>
+      <c r="C6">
+        <v>0.875</v>
+      </c>
+      <c r="D6">
+        <v>0.625</v>
+      </c>
+      <c r="E6">
+        <v>0.875</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.875</v>
+      </c>
+      <c r="H6">
+        <v>0.75</v>
+      </c>
+      <c r="I6">
+        <v>0.875</v>
+      </c>
+      <c r="J6">
+        <v>0.5</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.625</v>
+      </c>
+      <c r="N6">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.25</v>
+      </c>
+      <c r="C7">
+        <v>0.625</v>
+      </c>
+      <c r="D7">
+        <v>0.375</v>
+      </c>
+      <c r="E7">
+        <v>0.375</v>
+      </c>
+      <c r="F7">
+        <v>0.375</v>
+      </c>
+      <c r="G7">
+        <v>0.25</v>
+      </c>
+      <c r="H7">
+        <v>0.125</v>
+      </c>
+      <c r="I7">
+        <v>0.375</v>
+      </c>
+      <c r="J7">
+        <v>0.375</v>
+      </c>
+      <c r="K7">
+        <v>0.5</v>
+      </c>
+      <c r="L7">
+        <v>0.125</v>
+      </c>
+      <c r="M7">
+        <v>0.75</v>
+      </c>
+      <c r="N7">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.25</v>
+      </c>
+      <c r="C8">
+        <v>0.75</v>
+      </c>
+      <c r="D8">
+        <v>0.125</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0.25</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0.75</v>
+      </c>
+      <c r="I8">
+        <v>0.375</v>
+      </c>
+      <c r="J8">
+        <v>0.75</v>
+      </c>
+      <c r="K8">
+        <v>0.25</v>
+      </c>
+      <c r="L8">
+        <v>0.25</v>
+      </c>
+      <c r="M8">
+        <v>0.5</v>
+      </c>
+      <c r="N8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.5</v>
+      </c>
+      <c r="C9">
+        <v>0.75</v>
+      </c>
+      <c r="D9">
+        <v>0.75</v>
+      </c>
+      <c r="E9">
+        <v>0.625</v>
+      </c>
+      <c r="F9">
+        <v>0.875</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0.75</v>
+      </c>
+      <c r="I9">
+        <v>0.25</v>
+      </c>
+      <c r="J9">
+        <v>0.75</v>
+      </c>
+      <c r="K9">
+        <v>0.75</v>
+      </c>
+      <c r="L9">
+        <v>0.75</v>
+      </c>
+      <c r="M9">
+        <v>0.5</v>
+      </c>
+      <c r="N9">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.625</v>
+      </c>
+      <c r="C10">
+        <v>0.375</v>
+      </c>
+      <c r="D10">
+        <v>0.375</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10">
+        <v>0.625</v>
+      </c>
+      <c r="G10">
+        <v>0.875</v>
+      </c>
+      <c r="H10">
+        <v>0.625</v>
+      </c>
+      <c r="I10">
+        <v>0.5</v>
+      </c>
+      <c r="J10">
+        <v>0.625</v>
+      </c>
+      <c r="K10">
+        <v>0.625</v>
+      </c>
+      <c r="L10">
+        <v>0.375</v>
+      </c>
+      <c r="M10">
+        <v>0.375</v>
+      </c>
+      <c r="N10">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.625</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.25</v>
+      </c>
+      <c r="E11">
+        <v>0.25</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0.25</v>
+      </c>
+      <c r="H11">
+        <v>0.375</v>
+      </c>
+      <c r="I11">
+        <v>0.375</v>
+      </c>
+      <c r="J11">
+        <v>0.375</v>
+      </c>
+      <c r="K11">
+        <v>0.625</v>
+      </c>
+      <c r="L11">
+        <v>0.125</v>
+      </c>
+      <c r="M11">
+        <v>0.125</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.75</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+      <c r="D12">
+        <v>0.125</v>
+      </c>
+      <c r="E12">
+        <v>0.625</v>
+      </c>
+      <c r="F12">
+        <v>0.125</v>
+      </c>
+      <c r="G12">
+        <v>0.375</v>
+      </c>
+      <c r="H12">
+        <v>0.375</v>
+      </c>
+      <c r="I12">
+        <v>0.25</v>
+      </c>
+      <c r="J12">
+        <v>0.75</v>
+      </c>
+      <c r="K12">
+        <v>0.125</v>
+      </c>
+      <c r="L12">
+        <v>0.5</v>
+      </c>
+      <c r="M12">
+        <v>0.125</v>
+      </c>
+      <c r="N12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.375</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0.625</v>
+      </c>
+      <c r="E13">
+        <v>0.75</v>
+      </c>
+      <c r="F13">
+        <v>0.25</v>
+      </c>
+      <c r="G13">
+        <v>0.625</v>
+      </c>
+      <c r="H13">
+        <v>0.375</v>
+      </c>
+      <c r="I13">
+        <v>0.25</v>
+      </c>
+      <c r="J13">
+        <v>0.375</v>
+      </c>
+      <c r="K13">
+        <v>0.125</v>
+      </c>
+      <c r="L13">
+        <v>0.125</v>
+      </c>
+      <c r="M13">
+        <v>0.375</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.375</v>
+      </c>
+      <c r="C14">
+        <v>0.25</v>
+      </c>
+      <c r="D14">
+        <v>0.5</v>
+      </c>
+      <c r="E14">
+        <v>0.125</v>
+      </c>
+      <c r="F14">
+        <v>0.375</v>
+      </c>
+      <c r="G14">
+        <v>0.375</v>
+      </c>
+      <c r="H14">
+        <v>0.5</v>
+      </c>
+      <c r="I14">
+        <v>0.375</v>
+      </c>
+      <c r="J14">
+        <v>0.25</v>
+      </c>
+      <c r="K14">
+        <v>0.125</v>
+      </c>
+      <c r="L14">
+        <v>0.25</v>
+      </c>
+      <c r="M14">
+        <v>0.25</v>
+      </c>
+      <c r="N14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.125</v>
+      </c>
+      <c r="C15">
+        <v>0.125</v>
+      </c>
+      <c r="D15">
+        <v>0.375</v>
+      </c>
+      <c r="E15">
+        <v>0.5</v>
+      </c>
+      <c r="F15">
+        <v>0.875</v>
+      </c>
+      <c r="G15">
+        <v>0.375</v>
+      </c>
+      <c r="H15">
+        <v>0.375</v>
+      </c>
+      <c r="I15">
+        <v>0.25</v>
+      </c>
+      <c r="J15">
+        <v>0.75</v>
+      </c>
+      <c r="K15">
+        <v>0.375</v>
+      </c>
+      <c r="L15">
+        <v>0.625</v>
+      </c>
+      <c r="M15">
+        <v>0.375</v>
+      </c>
+      <c r="N15">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.25</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0.125</v>
+      </c>
+      <c r="E16">
+        <v>0.25</v>
+      </c>
+      <c r="F16">
+        <v>0.25</v>
+      </c>
+      <c r="G16">
+        <v>0.25</v>
+      </c>
+      <c r="H16">
+        <v>0.375</v>
+      </c>
+      <c r="I16">
+        <v>0.75</v>
+      </c>
+      <c r="J16">
+        <v>0.125</v>
+      </c>
+      <c r="K16">
+        <v>0.25</v>
+      </c>
+      <c r="L16">
+        <v>0.125</v>
+      </c>
+      <c r="M16">
+        <v>0.5</v>
+      </c>
+      <c r="N16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.5</v>
+      </c>
+      <c r="C17">
+        <v>0.5</v>
+      </c>
+      <c r="D17">
+        <v>0.5</v>
+      </c>
+      <c r="E17">
+        <v>0.625</v>
+      </c>
+      <c r="F17">
+        <v>0.625</v>
+      </c>
+      <c r="G17">
+        <v>0.25</v>
+      </c>
+      <c r="H17">
+        <v>0.5</v>
+      </c>
+      <c r="I17">
+        <v>0.5</v>
+      </c>
+      <c r="J17">
+        <v>0.125</v>
+      </c>
+      <c r="K17">
+        <v>0.625</v>
+      </c>
+      <c r="L17">
+        <v>0.75</v>
+      </c>
+      <c r="M17">
+        <v>0.75</v>
+      </c>
+      <c r="N17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.625</v>
+      </c>
+      <c r="C18">
+        <v>0.875</v>
+      </c>
+      <c r="D18">
+        <v>0.75</v>
+      </c>
+      <c r="E18">
+        <v>0.25</v>
+      </c>
+      <c r="F18">
+        <v>0.625</v>
+      </c>
+      <c r="G18">
+        <v>0.625</v>
+      </c>
+      <c r="H18">
+        <v>0.5</v>
+      </c>
+      <c r="I18">
+        <v>0.625</v>
+      </c>
+      <c r="J18">
+        <v>0.75</v>
+      </c>
+      <c r="K18">
+        <v>0.625</v>
+      </c>
+      <c r="L18">
+        <v>0.25</v>
+      </c>
+      <c r="M18">
+        <v>0.75</v>
+      </c>
+      <c r="N18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.5</v>
+      </c>
+      <c r="C19">
+        <v>0.625</v>
+      </c>
+      <c r="D19">
+        <v>0.75</v>
+      </c>
+      <c r="E19">
+        <v>0.125</v>
+      </c>
+      <c r="F19">
+        <v>0.625</v>
+      </c>
+      <c r="G19">
+        <v>0.75</v>
+      </c>
+      <c r="H19">
+        <v>0.25</v>
+      </c>
+      <c r="I19">
+        <v>0.625</v>
+      </c>
+      <c r="J19">
+        <v>0.375</v>
+      </c>
+      <c r="K19">
+        <v>0.875</v>
+      </c>
+      <c r="L19">
+        <v>0.5</v>
+      </c>
+      <c r="M19">
+        <v>0.5</v>
+      </c>
+      <c r="N19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.375</v>
+      </c>
+      <c r="C20">
+        <v>0.625</v>
+      </c>
+      <c r="D20">
+        <v>0.5</v>
+      </c>
+      <c r="E20">
+        <v>0.75</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>0.625</v>
+      </c>
+      <c r="H20">
+        <v>0.5</v>
+      </c>
+      <c r="I20">
+        <v>0.375</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0.375</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.625</v>
+      </c>
+      <c r="N20">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.75</v>
+      </c>
+      <c r="C21">
+        <v>0.375</v>
+      </c>
+      <c r="D21">
+        <v>0.125</v>
+      </c>
+      <c r="E21">
+        <v>0.25</v>
+      </c>
+      <c r="F21">
+        <v>0.25</v>
+      </c>
+      <c r="G21">
+        <v>0.375</v>
+      </c>
+      <c r="H21">
+        <v>0.375</v>
+      </c>
+      <c r="I21">
+        <v>0.25</v>
+      </c>
+      <c r="J21">
+        <v>0.25</v>
+      </c>
+      <c r="K21">
+        <v>0.125</v>
+      </c>
+      <c r="L21">
+        <v>0.125</v>
+      </c>
+      <c r="M21">
+        <v>0.125</v>
+      </c>
+      <c r="N21">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.125</v>
+      </c>
+      <c r="C22">
+        <v>0.5</v>
+      </c>
+      <c r="D22">
+        <v>0.25</v>
+      </c>
+      <c r="E22">
+        <v>0.5</v>
+      </c>
+      <c r="F22">
+        <v>0.625</v>
+      </c>
+      <c r="G22">
+        <v>0.875</v>
+      </c>
+      <c r="H22">
+        <v>0.375</v>
+      </c>
+      <c r="I22">
+        <v>0.625</v>
+      </c>
+      <c r="J22">
+        <v>0.5</v>
+      </c>
+      <c r="K22">
+        <v>0.375</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>0.375</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.375</v>
+      </c>
+      <c r="C23">
+        <v>0.375</v>
+      </c>
+      <c r="D23">
+        <v>0.375</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0.75</v>
+      </c>
+      <c r="G23">
+        <v>0.125</v>
+      </c>
+      <c r="H23">
+        <v>0.625</v>
+      </c>
+      <c r="I23">
+        <v>0.375</v>
+      </c>
+      <c r="J23">
+        <v>0.625</v>
+      </c>
+      <c r="K23">
+        <v>0.5</v>
+      </c>
+      <c r="L23">
+        <v>0.5</v>
+      </c>
+      <c r="M23">
+        <v>0.25</v>
+      </c>
+      <c r="N23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.25</v>
+      </c>
+      <c r="C24">
+        <v>0.25</v>
+      </c>
+      <c r="D24">
+        <v>0.375</v>
+      </c>
+      <c r="E24">
+        <v>0.5</v>
+      </c>
+      <c r="F24">
+        <v>0.25</v>
+      </c>
+      <c r="G24">
+        <v>0.5</v>
+      </c>
+      <c r="H24">
+        <v>0.5</v>
+      </c>
+      <c r="I24">
+        <v>0.125</v>
+      </c>
+      <c r="J24">
+        <v>0.5</v>
+      </c>
+      <c r="K24">
+        <v>0.375</v>
+      </c>
+      <c r="L24">
+        <v>0.625</v>
+      </c>
+      <c r="M24">
+        <v>0.125</v>
+      </c>
+      <c r="N24">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.5</v>
+      </c>
+      <c r="C25">
+        <v>0.375</v>
+      </c>
+      <c r="D25">
+        <v>0.5</v>
+      </c>
+      <c r="E25">
+        <v>0.5</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.125</v>
+      </c>
+      <c r="H25">
+        <v>0.5</v>
+      </c>
+      <c r="I25">
+        <v>0.375</v>
+      </c>
+      <c r="J25">
+        <v>0.75</v>
+      </c>
+      <c r="K25">
+        <v>0.5</v>
+      </c>
+      <c r="L25">
+        <v>0.75</v>
+      </c>
+      <c r="M25">
+        <v>0.125</v>
+      </c>
+      <c r="N25">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.625</v>
+      </c>
+      <c r="C26">
+        <v>0.25</v>
+      </c>
+      <c r="D26">
+        <v>0.875</v>
+      </c>
+      <c r="E26">
+        <v>0.75</v>
+      </c>
+      <c r="F26">
+        <v>0.375</v>
+      </c>
+      <c r="G26">
+        <v>0.375</v>
+      </c>
+      <c r="H26">
+        <v>0.75</v>
+      </c>
+      <c r="I26">
+        <v>0.375</v>
+      </c>
+      <c r="J26">
+        <v>0.875</v>
+      </c>
+      <c r="K26">
+        <v>0.625</v>
+      </c>
+      <c r="L26">
+        <v>0.375</v>
+      </c>
+      <c r="M26">
+        <v>0.375</v>
+      </c>
+      <c r="N26">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.625</v>
+      </c>
+      <c r="C27">
+        <v>0.625</v>
+      </c>
+      <c r="D27">
+        <v>0.375</v>
+      </c>
+      <c r="E27">
+        <v>0.125</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="G27">
+        <v>0.625</v>
+      </c>
+      <c r="H27">
+        <v>0.75</v>
+      </c>
+      <c r="I27">
+        <v>0.375</v>
+      </c>
+      <c r="J27">
+        <v>0.375</v>
+      </c>
+      <c r="K27">
+        <v>0.5</v>
+      </c>
+      <c r="L27">
+        <v>0.25</v>
+      </c>
+      <c r="M27">
+        <v>0.5</v>
+      </c>
+      <c r="N27">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.25</v>
+      </c>
+      <c r="C28">
+        <v>0.25</v>
+      </c>
+      <c r="D28">
+        <v>0.5</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.25</v>
+      </c>
+      <c r="G28">
+        <v>0.25</v>
+      </c>
+      <c r="H28">
+        <v>0.25</v>
+      </c>
+      <c r="I28">
+        <v>0.625</v>
+      </c>
+      <c r="J28">
+        <v>0.25</v>
+      </c>
+      <c r="K28">
+        <v>0.625</v>
+      </c>
+      <c r="L28">
+        <v>0.75</v>
+      </c>
+      <c r="M28">
+        <v>0.125</v>
+      </c>
+      <c r="N28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.5</v>
+      </c>
+      <c r="C29">
+        <v>0.25</v>
+      </c>
+      <c r="D29">
+        <v>0.5</v>
+      </c>
+      <c r="E29">
+        <v>0.625</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>0.375</v>
+      </c>
+      <c r="H29">
+        <v>0.25</v>
+      </c>
+      <c r="I29">
+        <v>0.125</v>
+      </c>
+      <c r="J29">
+        <v>0.25</v>
+      </c>
+      <c r="K29">
+        <v>0.375</v>
+      </c>
+      <c r="L29">
+        <v>0.375</v>
+      </c>
+      <c r="M29">
+        <v>0.75</v>
+      </c>
+      <c r="N29">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.125</v>
+      </c>
+      <c r="C30">
+        <v>0.5</v>
+      </c>
+      <c r="D30">
+        <v>0.25</v>
+      </c>
+      <c r="E30">
+        <v>0.375</v>
+      </c>
+      <c r="F30">
+        <v>0.5</v>
+      </c>
+      <c r="G30">
+        <v>0.25</v>
+      </c>
+      <c r="H30">
+        <v>0.125</v>
+      </c>
+      <c r="I30">
+        <v>0.125</v>
+      </c>
+      <c r="J30">
+        <v>0.25</v>
+      </c>
+      <c r="K30">
+        <v>0.125</v>
+      </c>
+      <c r="L30">
+        <v>0.375</v>
+      </c>
+      <c r="M30">
+        <v>0.25</v>
+      </c>
+      <c r="N30">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.125</v>
+      </c>
+      <c r="C31">
+        <v>0.375</v>
+      </c>
+      <c r="D31">
+        <v>0.375</v>
+      </c>
+      <c r="E31">
+        <v>0.75</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+      <c r="G31">
+        <v>0.25</v>
+      </c>
+      <c r="H31">
+        <v>0.125</v>
+      </c>
+      <c r="I31">
+        <v>0.5</v>
+      </c>
+      <c r="J31">
+        <v>0.125</v>
+      </c>
+      <c r="K31">
+        <v>0.625</v>
+      </c>
+      <c r="L31">
+        <v>0.75</v>
+      </c>
+      <c r="M31">
+        <v>0.375</v>
+      </c>
+      <c r="N31">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.25</v>
+      </c>
+      <c r="C32">
+        <v>0.375</v>
+      </c>
+      <c r="D32">
+        <v>0.375</v>
+      </c>
+      <c r="E32">
+        <v>0.375</v>
+      </c>
+      <c r="F32">
+        <v>0.375</v>
+      </c>
+      <c r="G32">
+        <v>0.375</v>
+      </c>
+      <c r="H32">
+        <v>0.5</v>
+      </c>
+      <c r="I32">
+        <v>0.5</v>
+      </c>
+      <c r="J32">
+        <v>0.25</v>
+      </c>
+      <c r="K32">
+        <v>0.25</v>
+      </c>
+      <c r="L32">
+        <v>0.375</v>
+      </c>
+      <c r="M32">
+        <v>0.125</v>
+      </c>
+      <c r="N32">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
